--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2395.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2395.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.069344566524485</v>
+        <v>1.081747055053711</v>
       </c>
       <c r="B1">
-        <v>2.353397205539499</v>
+        <v>2.411656141281128</v>
       </c>
       <c r="C1">
-        <v>7.254690434020724</v>
+        <v>5.037034034729004</v>
       </c>
       <c r="D1">
-        <v>1.781756489719008</v>
+        <v>2.289585113525391</v>
       </c>
       <c r="E1">
-        <v>0.9974066270349551</v>
+        <v>1.295222640037537</v>
       </c>
     </row>
   </sheetData>
